--- a/rethinking 2024/permutation practice.xlsx
+++ b/rethinking 2024/permutation practice.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\StatisticalRethinking\rethinking 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38341D-BC6D-46A9-B193-39CC3DC0EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678E0E0-94FE-4F22-AC99-9ABCA175FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{7B682D28-AC00-433B-A335-FDA8B3301C59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7B682D28-AC00-433B-A335-FDA8B3301C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="permutations" sheetId="2" r:id="rId2"/>
     <sheet name="duplicates" sheetId="3" r:id="rId3"/>
-    <sheet name="combinations" sheetId="4" r:id="rId4"/>
+    <sheet name="permuted groups" sheetId="5" r:id="rId4"/>
+    <sheet name="combinations" sheetId="4" r:id="rId5"/>
+    <sheet name="combinations (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="112">
   <si>
     <t>How many different letter arrangements can be formed from the letters PEPPER?</t>
   </si>
@@ -303,13 +307,132 @@
   </si>
   <si>
     <t>4x3 / 3x2 = 2</t>
+  </si>
+  <si>
+    <t>abe</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>ade</t>
+  </si>
+  <si>
+    <t>aeb</t>
+  </si>
+  <si>
+    <t>aec</t>
+  </si>
+  <si>
+    <t>aed</t>
+  </si>
+  <si>
+    <t>4! / 1!3! = 4</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>Bivariate Probability Mass Function f(x,y)</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(y)</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditional Probability Mass Function g(y|x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +454,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,19 +522,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D2D563-2EB7-4A2D-9234-C6F51B031215}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
@@ -1079,6 +1340,11 @@
       </c>
       <c r="E49" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1358,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,11 +1470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9320D9-AB08-4C52-BE1D-C36EFE082E11}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="4.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1314,15 +1583,110 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB1C7CC-06FA-4B0D-A31D-667248190B17}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06B172-7B51-4812-995C-A72E6894D04D}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K18:K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB1C7CC-06FA-4B0D-A31D-667248190B17}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
@@ -1419,6 +1783,411 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0FBFE9-51CA-4FC4-BFFB-C989FEEA9182}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DF2043-C464-4612-B731-EE1788F3DE9A}">
+  <dimension ref="D3:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="8">
+        <f>SUM(E5:H5)</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K5">
+        <f>E5/I5</f>
+        <v>0.80172413793103448</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="8">
+        <f>SUM(E6:H6)</f>
+        <v>9.9000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.245</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <f>SUM(E7:H7)</f>
+        <v>0.78499999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="8">
+        <f>SUM(E5:E7)</f>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUM(F5:F7)</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G5:G7)</f>
+        <v>0.108</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H5:H7)</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12">
+        <v>30</v>
+      </c>
+      <c r="H14" s="12">
+        <v>40</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="16">
+        <f>E5/$G$4</f>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F15" s="16">
+        <f>F5/$G$4</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G15" s="16">
+        <f>G5/$G$4</f>
+        <v>1.3333333333333334E-4</v>
+      </c>
+      <c r="H15" s="16">
+        <f>H5/$G$4</f>
+        <v>2.3333333333333333E-4</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="18">
+        <f>E6/$G$5</f>
+        <v>17</v>
+      </c>
+      <c r="F16" s="18">
+        <f>F6/$G$5</f>
+        <v>4.25</v>
+      </c>
+      <c r="G16" s="18">
+        <f>G6/$G$5</f>
+        <v>1.75</v>
+      </c>
+      <c r="H16" s="18">
+        <f>H6/$G$5</f>
+        <v>1.75</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="19">
+        <f>E7/$G$6</f>
+        <v>51.142857142857139</v>
+      </c>
+      <c r="F17" s="19">
+        <f>F7/$G$6</f>
+        <v>35</v>
+      </c>
+      <c r="G17" s="19">
+        <f>G7/$G$6</f>
+        <v>13.857142857142858</v>
+      </c>
+      <c r="H17" s="19">
+        <f>H7/$G$6</f>
+        <v>12.142857142857144</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F69A1B9-68DF-4471-84A9-BD8ED381B499}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="D2" s="20">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>6.0344827586206892E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1500</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.68686868686868674</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.17171717171717168</v>
+      </c>
+      <c r="D3" s="20">
+        <v>7.0707070707070691E-2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>7.0707070707070691E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.45605095541401275</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.31210191082802552</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.12356687898089173</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.10828025477707008</v>
       </c>
     </row>
   </sheetData>
